--- a/PhoenixCI/Excel_Template/30396.xlsx
+++ b/PhoenixCI/Excel_Template/30396.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C229623-37BB-4259-97F2-9AD425FEAFC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EEC3F9E-DD14-431E-B038-795EAD17C17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="30396" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -662,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,7 +682,7 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,6 +711,9 @@
     <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,14 +754,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="190" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -768,18 +770,18 @@
     <xf numFmtId="190" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="191" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="191" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="191" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="190" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -795,10 +797,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,7 +945,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-13FE-4181-BA04-2F5808FE030F}"/>
+              <c16:uniqueId val="{00000000-B30E-4249-8118-37D46A4CDEE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -990,7 +995,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-13FE-4181-BA04-2F5808FE030F}"/>
+              <c16:uniqueId val="{00000001-B30E-4249-8118-37D46A4CDEE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1003,7 +1008,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="699609736"/>
+        <c:axId val="400535552"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1058,7 +1063,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-13FE-4181-BA04-2F5808FE030F}"/>
+              <c16:uniqueId val="{00000002-B30E-4249-8118-37D46A4CDEE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1076,7 +1081,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="699609736"/>
+        <c:axId val="400535552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1173,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699609736"/>
+        <c:crossAx val="400535552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -1406,7 +1411,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-04A1-416F-8348-5E8C71E4875C}"/>
+                <c16:uniqueId val="{00000000-1FDB-4AA3-8A19-BF74A7AA1389}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1426,7 +1431,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-04A1-416F-8348-5E8C71E4875C}"/>
+                <c16:uniqueId val="{00000001-1FDB-4AA3-8A19-BF74A7AA1389}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1446,7 +1451,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-04A1-416F-8348-5E8C71E4875C}"/>
+                <c16:uniqueId val="{00000002-1FDB-4AA3-8A19-BF74A7AA1389}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1466,7 +1471,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-04A1-416F-8348-5E8C71E4875C}"/>
+                <c16:uniqueId val="{00000003-1FDB-4AA3-8A19-BF74A7AA1389}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1486,7 +1491,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-04A1-416F-8348-5E8C71E4875C}"/>
+                <c16:uniqueId val="{00000004-1FDB-4AA3-8A19-BF74A7AA1389}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1506,7 +1511,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-04A1-416F-8348-5E8C71E4875C}"/>
+                <c16:uniqueId val="{00000005-1FDB-4AA3-8A19-BF74A7AA1389}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1526,7 +1531,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-04A1-416F-8348-5E8C71E4875C}"/>
+                <c16:uniqueId val="{00000006-1FDB-4AA3-8A19-BF74A7AA1389}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1573,7 +1578,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-04A1-416F-8348-5E8C71E4875C}"/>
+                  <c16:uniqueId val="{00000000-1FDB-4AA3-8A19-BF74A7AA1389}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1619,7 +1624,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-04A1-416F-8348-5E8C71E4875C}"/>
+                  <c16:uniqueId val="{00000001-1FDB-4AA3-8A19-BF74A7AA1389}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1665,7 +1670,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-04A1-416F-8348-5E8C71E4875C}"/>
+                  <c16:uniqueId val="{00000002-1FDB-4AA3-8A19-BF74A7AA1389}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1711,7 +1716,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-04A1-416F-8348-5E8C71E4875C}"/>
+                  <c16:uniqueId val="{00000003-1FDB-4AA3-8A19-BF74A7AA1389}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1757,7 +1762,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-04A1-416F-8348-5E8C71E4875C}"/>
+                  <c16:uniqueId val="{00000004-1FDB-4AA3-8A19-BF74A7AA1389}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1803,7 +1808,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-04A1-416F-8348-5E8C71E4875C}"/>
+                  <c16:uniqueId val="{00000005-1FDB-4AA3-8A19-BF74A7AA1389}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1905,7 +1910,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-04A1-416F-8348-5E8C71E4875C}"/>
+              <c16:uniqueId val="{00000007-1FDB-4AA3-8A19-BF74A7AA1389}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2098,7 +2103,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-8993-4961-8320-27AA5008AC7B}"/>
+                <c16:uniqueId val="{00000000-F4AD-4745-9716-2F4C360428AD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2118,7 +2123,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8993-4961-8320-27AA5008AC7B}"/>
+                <c16:uniqueId val="{00000001-F4AD-4745-9716-2F4C360428AD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2138,7 +2143,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-8993-4961-8320-27AA5008AC7B}"/>
+                <c16:uniqueId val="{00000002-F4AD-4745-9716-2F4C360428AD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2158,7 +2163,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8993-4961-8320-27AA5008AC7B}"/>
+                <c16:uniqueId val="{00000003-F4AD-4745-9716-2F4C360428AD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2178,7 +2183,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-8993-4961-8320-27AA5008AC7B}"/>
+                <c16:uniqueId val="{00000004-F4AD-4745-9716-2F4C360428AD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2198,7 +2203,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-8993-4961-8320-27AA5008AC7B}"/>
+                <c16:uniqueId val="{00000005-F4AD-4745-9716-2F4C360428AD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2218,7 +2223,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-8993-4961-8320-27AA5008AC7B}"/>
+                <c16:uniqueId val="{00000006-F4AD-4745-9716-2F4C360428AD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2265,7 +2270,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-8993-4961-8320-27AA5008AC7B}"/>
+                  <c16:uniqueId val="{00000000-F4AD-4745-9716-2F4C360428AD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2311,7 +2316,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-8993-4961-8320-27AA5008AC7B}"/>
+                  <c16:uniqueId val="{00000001-F4AD-4745-9716-2F4C360428AD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2357,7 +2362,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-8993-4961-8320-27AA5008AC7B}"/>
+                  <c16:uniqueId val="{00000002-F4AD-4745-9716-2F4C360428AD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2403,7 +2408,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8993-4961-8320-27AA5008AC7B}"/>
+                  <c16:uniqueId val="{00000003-F4AD-4745-9716-2F4C360428AD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2449,7 +2454,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-8993-4961-8320-27AA5008AC7B}"/>
+                  <c16:uniqueId val="{00000004-F4AD-4745-9716-2F4C360428AD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2495,7 +2500,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-8993-4961-8320-27AA5008AC7B}"/>
+                  <c16:uniqueId val="{00000005-F4AD-4745-9716-2F4C360428AD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2597,7 +2602,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8993-4961-8320-27AA5008AC7B}"/>
+              <c16:uniqueId val="{00000007-F4AD-4745-9716-2F4C360428AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2741,7 +2746,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F219E3B-1EF0-463A-B9FB-9B2545003463}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D00672F-58DA-406F-B204-C75E76D15882}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2795,7 +2800,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E1778E-88B5-4C11-9104-C6EDCE55E380}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCED214-7F11-4552-B90B-068D947C6FB6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2839,7 +2844,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F46C23-0F0A-4D0E-BD0F-6076ED0D0FC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84821CAF-ED1B-4672-B7B2-ECE3F306E064}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2882,7 +2887,7 @@
         <xdr:cNvPr id="3094" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9072D55E-5DA2-4969-8E63-549ACEA328C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A4CFEE-03B2-4CC2-94F8-3EBF82F304C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2930,7 @@
         <xdr:cNvPr id="4118" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C2BB67-2641-4C8B-9722-7A4DFD4E397E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBF63C3-8A84-4FB7-B2C7-81A38A6894E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3305,13 +3310,13 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -3340,314 +3345,314 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37">
+      <c r="A4" s="31"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37">
+      <c r="A5" s="31"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37">
+      <c r="A6" s="31"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37">
+      <c r="A7" s="31"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37">
+      <c r="A8" s="31"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="34"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37">
+      <c r="A9" s="31"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37">
+      <c r="A10" s="31"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="30"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37">
+      <c r="A11" s="31"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="30"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37">
+      <c r="A12" s="31"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="34"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="30"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37">
+      <c r="A13" s="31"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="30"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37">
+      <c r="A14" s="31"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="30"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37">
+      <c r="A15" s="31"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="30"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37">
+      <c r="A16" s="31"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="30"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37">
+      <c r="A17" s="31"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="30"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37">
+      <c r="A18" s="31"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="30"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37">
+      <c r="A19" s="31"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="30"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37">
+      <c r="A20" s="31"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37">
+      <c r="A21" s="31"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37">
+      <c r="A22" s="31"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37">
+      <c r="A23" s="31"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="30"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37">
+      <c r="A24" s="31"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37">
+      <c r="A25" s="31"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37">
+      <c r="A26" s="31"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="30"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37">
+      <c r="A27" s="31"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="30"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37">
+      <c r="A28" s="31"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="30"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37">
+      <c r="A29" s="31"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="34"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="30"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37">
+      <c r="A30" s="31"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="30"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37">
+      <c r="A31" s="31"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="34"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="30"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37">
+      <c r="A32" s="31"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="30"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37">
+      <c r="A33" s="31"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39">
+      <c r="A34" s="33"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="35"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" s="9"/>
@@ -3753,86 +3758,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="49" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="49" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="52"/>
+      <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="54" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="43" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="53"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
@@ -3883,7 +3888,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -3911,7 +3916,7 @@
       <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -3939,7 +3944,7 @@
       <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -3967,7 +3972,7 @@
       <c r="T7" s="17"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3995,21 +4000,21 @@
       <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
       <c r="P9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4022,22 +4027,22 @@
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+    <row r="10" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
       <c r="P10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4050,22 +4055,22 @@
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+    <row r="11" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
       <c r="P11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4078,22 +4083,22 @@
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
     </row>
-    <row r="12" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+    <row r="12" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4106,22 +4111,22 @@
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
     </row>
-    <row r="13" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+    <row r="13" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
       <c r="P13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4134,22 +4139,22 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
     </row>
-    <row r="14" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+    <row r="14" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
       <c r="P14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4162,22 +4167,22 @@
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+    <row r="15" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
       <c r="P15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4190,22 +4195,22 @@
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
     </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+    <row r="16" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4218,61 +4223,61 @@
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="19">
+    <row r="17" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="20">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="20">
         <f t="shared" ref="C17:O17" si="2">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="20">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="20">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4284,75 +4289,75 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="1:20" s="23" customFormat="1">
-      <c r="A18" s="22" t="s">
+      <c r="R17" s="21"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+    </row>
+    <row r="18" spans="1:20" s="24" customFormat="1">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="28">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="28">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="28">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="28">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="28">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="28">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="28">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="28">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="28">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="28">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="28">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="28">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="28">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="28">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="29">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="30">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>

--- a/PhoenixCI/Excel_Template/30396.xlsx
+++ b/PhoenixCI/Excel_Template/30396.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EEC3F9E-DD14-431E-B038-795EAD17C17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C229623-37BB-4259-97F2-9AD425FEAFC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12510"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="30396" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -661,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,7 +683,7 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -711,9 +712,6 @@
     <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -754,14 +752,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="190" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -770,18 +768,18 @@
     <xf numFmtId="190" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="191" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="191" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="191" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="190" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -797,13 +795,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,7 +940,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B30E-4249-8118-37D46A4CDEE2}"/>
+              <c16:uniqueId val="{00000000-13FE-4181-BA04-2F5808FE030F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -995,7 +990,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B30E-4249-8118-37D46A4CDEE2}"/>
+              <c16:uniqueId val="{00000001-13FE-4181-BA04-2F5808FE030F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1008,7 +1003,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="400535552"/>
+        <c:axId val="699609736"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1063,7 +1058,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B30E-4249-8118-37D46A4CDEE2}"/>
+              <c16:uniqueId val="{00000002-13FE-4181-BA04-2F5808FE030F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1081,7 +1076,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="400535552"/>
+        <c:axId val="699609736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1168,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400535552"/>
+        <c:crossAx val="699609736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -1411,7 +1406,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                <c16:uniqueId val="{00000000-04A1-416F-8348-5E8C71E4875C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1431,7 +1426,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                <c16:uniqueId val="{00000001-04A1-416F-8348-5E8C71E4875C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1451,7 +1446,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                <c16:uniqueId val="{00000002-04A1-416F-8348-5E8C71E4875C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1471,7 +1466,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                <c16:uniqueId val="{00000003-04A1-416F-8348-5E8C71E4875C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1491,7 +1486,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                <c16:uniqueId val="{00000004-04A1-416F-8348-5E8C71E4875C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1511,7 +1506,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                <c16:uniqueId val="{00000005-04A1-416F-8348-5E8C71E4875C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1531,7 +1526,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                <c16:uniqueId val="{00000006-04A1-416F-8348-5E8C71E4875C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1578,7 +1573,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                  <c16:uniqueId val="{00000000-04A1-416F-8348-5E8C71E4875C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1624,7 +1619,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                  <c16:uniqueId val="{00000001-04A1-416F-8348-5E8C71E4875C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1670,7 +1665,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                  <c16:uniqueId val="{00000002-04A1-416F-8348-5E8C71E4875C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1716,7 +1711,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                  <c16:uniqueId val="{00000003-04A1-416F-8348-5E8C71E4875C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1762,7 +1757,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                  <c16:uniqueId val="{00000004-04A1-416F-8348-5E8C71E4875C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1808,7 +1803,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+                  <c16:uniqueId val="{00000005-04A1-416F-8348-5E8C71E4875C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1910,7 +1905,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-1FDB-4AA3-8A19-BF74A7AA1389}"/>
+              <c16:uniqueId val="{00000007-04A1-416F-8348-5E8C71E4875C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2103,7 +2098,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-F4AD-4745-9716-2F4C360428AD}"/>
+                <c16:uniqueId val="{00000000-8993-4961-8320-27AA5008AC7B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2123,7 +2118,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F4AD-4745-9716-2F4C360428AD}"/>
+                <c16:uniqueId val="{00000001-8993-4961-8320-27AA5008AC7B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2143,7 +2138,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F4AD-4745-9716-2F4C360428AD}"/>
+                <c16:uniqueId val="{00000002-8993-4961-8320-27AA5008AC7B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2163,7 +2158,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F4AD-4745-9716-2F4C360428AD}"/>
+                <c16:uniqueId val="{00000003-8993-4961-8320-27AA5008AC7B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2183,7 +2178,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-F4AD-4745-9716-2F4C360428AD}"/>
+                <c16:uniqueId val="{00000004-8993-4961-8320-27AA5008AC7B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2203,7 +2198,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F4AD-4745-9716-2F4C360428AD}"/>
+                <c16:uniqueId val="{00000005-8993-4961-8320-27AA5008AC7B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2223,7 +2218,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-F4AD-4745-9716-2F4C360428AD}"/>
+                <c16:uniqueId val="{00000006-8993-4961-8320-27AA5008AC7B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2270,7 +2265,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-F4AD-4745-9716-2F4C360428AD}"/>
+                  <c16:uniqueId val="{00000000-8993-4961-8320-27AA5008AC7B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2316,7 +2311,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-F4AD-4745-9716-2F4C360428AD}"/>
+                  <c16:uniqueId val="{00000001-8993-4961-8320-27AA5008AC7B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2362,7 +2357,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-F4AD-4745-9716-2F4C360428AD}"/>
+                  <c16:uniqueId val="{00000002-8993-4961-8320-27AA5008AC7B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2408,7 +2403,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F4AD-4745-9716-2F4C360428AD}"/>
+                  <c16:uniqueId val="{00000003-8993-4961-8320-27AA5008AC7B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2454,7 +2449,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-F4AD-4745-9716-2F4C360428AD}"/>
+                  <c16:uniqueId val="{00000004-8993-4961-8320-27AA5008AC7B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2500,7 +2495,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-F4AD-4745-9716-2F4C360428AD}"/>
+                  <c16:uniqueId val="{00000005-8993-4961-8320-27AA5008AC7B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2602,7 +2597,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F4AD-4745-9716-2F4C360428AD}"/>
+              <c16:uniqueId val="{00000007-8993-4961-8320-27AA5008AC7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2746,7 +2741,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D00672F-58DA-406F-B204-C75E76D15882}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F219E3B-1EF0-463A-B9FB-9B2545003463}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2800,7 +2795,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCED214-7F11-4552-B90B-068D947C6FB6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E1778E-88B5-4C11-9104-C6EDCE55E380}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2844,7 +2839,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84821CAF-ED1B-4672-B7B2-ECE3F306E064}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F46C23-0F0A-4D0E-BD0F-6076ED0D0FC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +2882,7 @@
         <xdr:cNvPr id="3094" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A4CFEE-03B2-4CC2-94F8-3EBF82F304C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9072D55E-5DA2-4969-8E63-549ACEA328C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2925,7 @@
         <xdr:cNvPr id="4118" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBF63C3-8A84-4FB7-B2C7-81A38A6894E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C2BB67-2641-4C8B-9722-7A4DFD4E397E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,13 +3305,13 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -3345,314 +3340,314 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="31"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38">
+      <c r="A4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38">
+      <c r="A5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38">
+      <c r="A6" s="30"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38">
+      <c r="A7" s="30"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38">
+      <c r="A8" s="30"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38">
+      <c r="A9" s="30"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="31"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38">
+      <c r="A10" s="30"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="31"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38">
+      <c r="A11" s="30"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="31"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38">
+      <c r="A12" s="30"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="31"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38">
+      <c r="A13" s="30"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="35"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="31"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38">
+      <c r="A14" s="30"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="35"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="31"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38">
+      <c r="A15" s="30"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="31"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38">
+      <c r="A16" s="30"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="31"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38">
+      <c r="A17" s="30"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="35"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="31"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38">
+      <c r="A18" s="30"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="35"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="31"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38">
+      <c r="A19" s="30"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="31"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38">
+      <c r="A20" s="30"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="31"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38">
+      <c r="A21" s="30"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="31"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="A22" s="30"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="31"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38">
+      <c r="A23" s="30"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="35"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="31"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38">
+      <c r="A24" s="30"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="35"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="31"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38">
+      <c r="A25" s="30"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="35"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="31"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38">
+      <c r="A26" s="30"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="35"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="31"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38">
+      <c r="A27" s="30"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="35"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="31"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38">
+      <c r="A28" s="30"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="35"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="31"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38">
+      <c r="A29" s="30"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="35"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="34"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="31"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38">
+      <c r="A30" s="30"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="35"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="31"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38">
+      <c r="A31" s="30"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="35"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="31"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38">
+      <c r="A32" s="30"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="31"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38">
+      <c r="A33" s="30"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="35"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40">
+      <c r="A34" s="32"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="36"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="35"/>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" s="9"/>
@@ -3758,86 +3753,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="51" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="51" t="s">
+      <c r="O2" s="50"/>
+      <c r="P2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="54"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="44" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="55"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
@@ -3888,7 +3883,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -3916,7 +3911,7 @@
       <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -3944,7 +3939,7 @@
       <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -3972,7 +3967,7 @@
       <c r="T7" s="17"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -4000,21 +3995,21 @@
       <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4027,22 +4022,22 @@
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
     </row>
-    <row r="10" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+    <row r="10" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4055,22 +4050,22 @@
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
     </row>
-    <row r="11" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+    <row r="11" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4083,22 +4078,22 @@
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
     </row>
-    <row r="12" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+    <row r="12" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4111,22 +4106,22 @@
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
     </row>
-    <row r="13" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+    <row r="13" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4139,22 +4134,22 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
     </row>
-    <row r="14" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+    <row r="14" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4167,22 +4162,22 @@
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+    <row r="15" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4195,22 +4190,22 @@
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
     </row>
-    <row r="16" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+    <row r="16" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
       <c r="P16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4223,61 +4218,61 @@
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
     </row>
-    <row r="17" spans="1:20" s="19" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="20">
+    <row r="17" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="19">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <f t="shared" ref="C17:O17" si="2">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="19">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="19">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4289,75 +4284,75 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="21"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-    </row>
-    <row r="18" spans="1:20" s="24" customFormat="1">
-      <c r="A18" s="23" t="s">
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="1:20" s="23" customFormat="1">
+      <c r="A18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="27">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="27">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P18" s="28">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
